--- a/course_data.xlsx
+++ b/course_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE4E3F0-EDAD-454F-98D4-FCC16F594A23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AE4D93-1FD7-3345-9361-F848C7FA4F0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="460" windowWidth="22260" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25427,9 +25427,6 @@
     <t>标准化过程</t>
   </si>
   <si>
-    <t>f33ef3980d3b44e1b4425c4d60e4fea8</t>
-  </si>
-  <si>
     <t>企业安全管理体系要素解析</t>
   </si>
   <si>
@@ -25495,6 +25492,10 @@
   </si>
   <si>
     <t xml:space="preserve">Keep it simple,stupid--KISS原则在产品开发中的应用 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f33ef3980d3b44e1b4425c4d60e4fea8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -25583,6 +25584,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F19166ED-CB39-4F80-8E47-F2BE2560ECE1}" name="course_data" displayName="course_data" ref="A1:D4258" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D4258" xr:uid="{96E35DDB-C636-ED4B-93F8-51CBCFC66439}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9277AB5A-0923-488A-9AF7-EFB0369DDB35}" uniqueName="1" name="课程名称" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{B4B85D81-08B3-4B5B-A7F9-1F9E906CC7AC}" uniqueName="2" name="课程ID" queryTableFieldId="2" dataDxfId="1"/>
@@ -25856,11 +25858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F69FCB5-6A59-4857-B420-3FD3F396A1BF}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D4501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4237" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A2875" workbookViewId="0">
+      <selection activeCell="B4248" sqref="B4248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -25996,7 +25997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -26010,7 +26011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -27130,7 +27131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1">
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
         <v>183</v>
       </c>
@@ -30868,7 +30869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="358" spans="1:4" hidden="1">
+    <row r="358" spans="1:4">
       <c r="A358" s="1" t="s">
         <v>716</v>
       </c>
@@ -40808,7 +40809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1068" spans="1:4" hidden="1">
+    <row r="1068" spans="1:4">
       <c r="A1068" s="1" t="s">
         <v>2135</v>
       </c>
@@ -57706,7 +57707,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="2275" spans="1:4" hidden="1">
+    <row r="2275" spans="1:4">
       <c r="A2275" s="1" t="s">
         <v>4549</v>
       </c>
@@ -60828,7 +60829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2498" spans="1:4" hidden="1">
+    <row r="2498" spans="1:4">
       <c r="A2498" s="1" t="s">
         <v>4995</v>
       </c>
@@ -62914,7 +62915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2647" spans="1:4" hidden="1">
+    <row r="2647" spans="1:4">
       <c r="A2647" s="1" t="s">
         <v>5292</v>
       </c>
@@ -63096,7 +63097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2660" spans="1:4" hidden="1">
+    <row r="2660" spans="1:4">
       <c r="A2660" s="1" t="s">
         <v>5317</v>
       </c>
@@ -70096,7 +70097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3160" spans="1:4" hidden="1">
+    <row r="3160" spans="1:4">
       <c r="A3160" s="1" t="s">
         <v>6127</v>
       </c>
@@ -70110,7 +70111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3161" spans="1:4" hidden="1">
+    <row r="3161" spans="1:4">
       <c r="A3161" s="1" t="s">
         <v>6129</v>
       </c>
@@ -70124,7 +70125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3162" spans="1:4" hidden="1">
+    <row r="3162" spans="1:4">
       <c r="A3162" s="1" t="s">
         <v>6316</v>
       </c>
@@ -70138,7 +70139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3163" spans="1:4" hidden="1">
+    <row r="3163" spans="1:4">
       <c r="A3163" s="1" t="s">
         <v>6318</v>
       </c>
@@ -70152,7 +70153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3164" spans="1:4" hidden="1">
+    <row r="3164" spans="1:4">
       <c r="A3164" s="1" t="s">
         <v>6135</v>
       </c>
@@ -70194,7 +70195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3167" spans="1:4" hidden="1">
+    <row r="3167" spans="1:4">
       <c r="A3167" s="1" t="s">
         <v>6324</v>
       </c>
@@ -70222,7 +70223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3169" spans="1:4" hidden="1">
+    <row r="3169" spans="1:4">
       <c r="A3169" s="1" t="s">
         <v>6145</v>
       </c>
@@ -70250,7 +70251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3171" spans="1:4" hidden="1">
+    <row r="3171" spans="1:4">
       <c r="A3171" s="1" t="s">
         <v>6155</v>
       </c>
@@ -70264,7 +70265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3172" spans="1:4" hidden="1">
+    <row r="3172" spans="1:4">
       <c r="A3172" s="1" t="s">
         <v>6149</v>
       </c>
@@ -70278,7 +70279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3173" spans="1:4" hidden="1">
+    <row r="3173" spans="1:4">
       <c r="A3173" s="1" t="s">
         <v>6151</v>
       </c>
@@ -70292,7 +70293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3174" spans="1:4" hidden="1">
+    <row r="3174" spans="1:4">
       <c r="A3174" s="1" t="s">
         <v>6153</v>
       </c>
@@ -70306,7 +70307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3175" spans="1:4" hidden="1">
+    <row r="3175" spans="1:4">
       <c r="A3175" s="1" t="s">
         <v>6333</v>
       </c>
@@ -70320,7 +70321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3176" spans="1:4" hidden="1">
+    <row r="3176" spans="1:4">
       <c r="A3176" s="1" t="s">
         <v>6335</v>
       </c>
@@ -70334,7 +70335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3177" spans="1:4" hidden="1">
+    <row r="3177" spans="1:4">
       <c r="A3177" s="1" t="s">
         <v>6337</v>
       </c>
@@ -75108,7 +75109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3518" spans="1:4" hidden="1">
+    <row r="3518" spans="1:4">
       <c r="A3518" s="1" t="s">
         <v>7018</v>
       </c>
@@ -82740,10 +82741,10 @@
     </row>
     <row r="4063" spans="1:4">
       <c r="A4063" s="1" t="s">
-        <v>8486</v>
+        <v>8485</v>
       </c>
       <c r="B4063" s="1" t="s">
-        <v>8485</v>
+        <v>8484</v>
       </c>
       <c r="C4063">
         <v>0.5</v>
@@ -84390,7 +84391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4181" spans="1:4" hidden="1">
+    <row r="4181" spans="1:4">
       <c r="A4181" s="1" t="s">
         <v>8334</v>
       </c>
@@ -84404,7 +84405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4182" spans="1:4" hidden="1">
+    <row r="4182" spans="1:4">
       <c r="A4182" s="1" t="s">
         <v>8334</v>
       </c>
@@ -84418,7 +84419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4183" spans="1:4" hidden="1">
+    <row r="4183" spans="1:4">
       <c r="A4183" s="1" t="s">
         <v>8334</v>
       </c>
@@ -84432,7 +84433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4184" spans="1:4" hidden="1">
+    <row r="4184" spans="1:4">
       <c r="A4184" s="1" t="s">
         <v>8334</v>
       </c>
@@ -84446,7 +84447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4185" spans="1:4" hidden="1">
+    <row r="4185" spans="1:4">
       <c r="A4185" s="1" t="s">
         <v>8334</v>
       </c>
@@ -84460,7 +84461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4186" spans="1:4" hidden="1">
+    <row r="4186" spans="1:4">
       <c r="A4186" s="1" t="s">
         <v>8334</v>
       </c>
@@ -84474,7 +84475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4187" spans="1:4" hidden="1">
+    <row r="4187" spans="1:4">
       <c r="A4187" s="1" t="s">
         <v>8334</v>
       </c>
@@ -84488,7 +84489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4188" spans="1:4" hidden="1">
+    <row r="4188" spans="1:4">
       <c r="A4188" s="1" t="s">
         <v>8334</v>
       </c>
@@ -84502,7 +84503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4189" spans="1:4" hidden="1">
+    <row r="4189" spans="1:4">
       <c r="A4189" s="1" t="s">
         <v>8334</v>
       </c>
@@ -84516,7 +84517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4190" spans="1:4" hidden="1">
+    <row r="4190" spans="1:4">
       <c r="A4190" s="1" t="s">
         <v>8334</v>
       </c>
@@ -84530,7 +84531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4191" spans="1:4" hidden="1">
+    <row r="4191" spans="1:4">
       <c r="A4191" s="1" t="s">
         <v>8349</v>
       </c>
@@ -84544,7 +84545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4192" spans="1:4" hidden="1">
+    <row r="4192" spans="1:4">
       <c r="A4192" s="1" t="s">
         <v>8351</v>
       </c>
@@ -84558,7 +84559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4193" spans="1:4" hidden="1">
+    <row r="4193" spans="1:4">
       <c r="A4193" s="1" t="s">
         <v>8353</v>
       </c>
@@ -85333,7 +85334,7 @@
         <v>8463</v>
       </c>
       <c r="B4248" s="1" t="s">
-        <v>8464</v>
+        <v>8486</v>
       </c>
       <c r="C4248">
         <v>0.1</v>
@@ -85344,10 +85345,10 @@
     </row>
     <row r="4249" spans="1:4">
       <c r="A4249" s="1" t="s">
+        <v>8464</v>
+      </c>
+      <c r="B4249" s="1" t="s">
         <v>8465</v>
-      </c>
-      <c r="B4249" s="1" t="s">
-        <v>8466</v>
       </c>
       <c r="C4249">
         <v>0.5</v>
@@ -85358,10 +85359,10 @@
     </row>
     <row r="4250" spans="1:4">
       <c r="A4250" s="1" t="s">
+        <v>8466</v>
+      </c>
+      <c r="B4250" s="1" t="s">
         <v>8467</v>
-      </c>
-      <c r="B4250" s="1" t="s">
-        <v>8468</v>
       </c>
       <c r="C4250">
         <v>0.5</v>
@@ -85372,10 +85373,10 @@
     </row>
     <row r="4251" spans="1:4">
       <c r="A4251" s="1" t="s">
+        <v>8468</v>
+      </c>
+      <c r="B4251" s="1" t="s">
         <v>8469</v>
-      </c>
-      <c r="B4251" s="1" t="s">
-        <v>8470</v>
       </c>
       <c r="C4251">
         <v>0.5</v>
@@ -85386,10 +85387,10 @@
     </row>
     <row r="4252" spans="1:4">
       <c r="A4252" s="1" t="s">
+        <v>8470</v>
+      </c>
+      <c r="B4252" s="1" t="s">
         <v>8471</v>
-      </c>
-      <c r="B4252" s="1" t="s">
-        <v>8472</v>
       </c>
       <c r="C4252">
         <v>0.5</v>
@@ -85400,10 +85401,10 @@
     </row>
     <row r="4253" spans="1:4">
       <c r="A4253" s="1" t="s">
+        <v>8472</v>
+      </c>
+      <c r="B4253" s="1" t="s">
         <v>8473</v>
-      </c>
-      <c r="B4253" s="1" t="s">
-        <v>8474</v>
       </c>
       <c r="C4253">
         <v>0.5</v>
@@ -85414,10 +85415,10 @@
     </row>
     <row r="4254" spans="1:4">
       <c r="A4254" s="1" t="s">
+        <v>8474</v>
+      </c>
+      <c r="B4254" s="1" t="s">
         <v>8475</v>
-      </c>
-      <c r="B4254" s="1" t="s">
-        <v>8476</v>
       </c>
       <c r="C4254">
         <v>0.5</v>
@@ -85428,10 +85429,10 @@
     </row>
     <row r="4255" spans="1:4">
       <c r="A4255" s="1" t="s">
+        <v>8476</v>
+      </c>
+      <c r="B4255" s="1" t="s">
         <v>8477</v>
-      </c>
-      <c r="B4255" s="1" t="s">
-        <v>8478</v>
       </c>
       <c r="C4255">
         <v>0.5</v>
@@ -85442,10 +85443,10 @@
     </row>
     <row r="4256" spans="1:4">
       <c r="A4256" s="1" t="s">
+        <v>8478</v>
+      </c>
+      <c r="B4256" s="1" t="s">
         <v>8479</v>
-      </c>
-      <c r="B4256" s="1" t="s">
-        <v>8480</v>
       </c>
       <c r="C4256">
         <v>1</v>
@@ -85456,10 +85457,10 @@
     </row>
     <row r="4257" spans="1:4">
       <c r="A4257" s="1" t="s">
+        <v>8480</v>
+      </c>
+      <c r="B4257" s="1" t="s">
         <v>8481</v>
-      </c>
-      <c r="B4257" s="1" t="s">
-        <v>8482</v>
       </c>
       <c r="C4257">
         <v>1</v>
@@ -85470,10 +85471,10 @@
     </row>
     <row r="4258" spans="1:4">
       <c r="A4258" s="1" t="s">
+        <v>8482</v>
+      </c>
+      <c r="B4258" s="1" t="s">
         <v>8483</v>
-      </c>
-      <c r="B4258" s="1" t="s">
-        <v>8484</v>
       </c>
       <c r="C4258">
         <v>2</v>
